--- a/spotify-mood-music-recommendations/Sample Data combined with master.xlsx
+++ b/spotify-mood-music-recommendations/Sample Data combined with master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.liu\Documents\projects\ml-stuff\spotify-mood-music-recommendations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16447042-FBDA-4665-BDCD-7F3AA6B491BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E92234-B77B-4AA7-A6C2-1E034B65CD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>What Ifs</t>
   </si>
@@ -33,54 +33,6 @@
     <t>Kane Brown</t>
   </si>
   <si>
-    <t>acousticness</t>
-  </si>
-  <si>
-    <t>danceability</t>
-  </si>
-  <si>
-    <t>duration_ms</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>instrumentalness</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>liveness</t>
-  </si>
-  <si>
-    <t>loudness</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>speechiness</t>
-  </si>
-  <si>
-    <t>tempo</t>
-  </si>
-  <si>
-    <t>time_signature</t>
-  </si>
-  <si>
-    <t>valence</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>song_title</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
     <t>I Have Dreamed</t>
   </si>
   <si>
@@ -361,9 +313,6 @@
   </si>
   <si>
     <t>Hayden James</t>
-  </si>
-  <si>
-    <t>emotion</t>
   </si>
   <si>
     <t>frantic</t>
@@ -712,2305 +661,2305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="A1">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="B1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C1">
+        <v>188253</v>
+      </c>
+      <c r="D1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
+      <c r="G1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H1">
+        <v>-4.6029999999999998</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="K1">
+        <v>125.976</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8.9800000000000001E-3</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="B2">
-        <v>0.61199999999999999</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="C2">
-        <v>188253</v>
+        <v>507533</v>
       </c>
       <c r="D2">
-        <v>0.79900000000000004</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0.17199999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="H2">
-        <v>-4.6029999999999998</v>
+        <v>-21.225999999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.75E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="K2">
-        <v>125.976</v>
+        <v>107.43600000000001</v>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
       <c r="M2">
-        <v>0.67500000000000004</v>
+        <v>0.152</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.91800000000000004</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="B3">
-        <v>0.33100000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C3">
-        <v>507533</v>
+        <v>220573</v>
       </c>
       <c r="D3">
-        <v>8.6099999999999996E-2</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E3">
-        <v>0.90200000000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>-4.0789999999999997</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>104.764</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0.106</v>
-      </c>
-      <c r="H3">
-        <v>-21.225999999999999</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="K3">
-        <v>107.43600000000001</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>0.152</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.7500000000000002E-2</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="B4">
-        <v>0.56399999999999995</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C4">
-        <v>220573</v>
+        <v>202853</v>
       </c>
       <c r="D4">
-        <v>0.73699999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>5.3999999999999999E-2</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="H4">
-        <v>-4.0789999999999997</v>
+        <v>-3.6259999999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.1399999999999999E-2</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="K4">
-        <v>104.764</v>
+        <v>130.035</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>0.23100000000000001</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.8099999999999997E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="B5">
-        <v>0.60299999999999998</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C5">
-        <v>202853</v>
+        <v>201093</v>
       </c>
       <c r="D5">
-        <v>0.94399999999999995</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0.34200000000000003</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="H5">
-        <v>-3.6259999999999999</v>
+        <v>-3.4220000000000002</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.34699999999999998</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="K5">
-        <v>130.035</v>
+        <v>113.98099999999999</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.39800000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.58E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="B6">
-        <v>0.70399999999999996</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C6">
-        <v>201093</v>
+        <v>267080</v>
       </c>
       <c r="D6">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.3699999999999999E-5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.34499999999999997</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>-3.4220000000000002</v>
+        <v>-5.5330000000000004</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.4299999999999999E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="K6">
-        <v>113.98099999999999</v>
+        <v>122.65</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.96</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.4600000000000001E-2</v>
+        <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.85299999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="C7">
-        <v>267080</v>
+        <v>238400</v>
       </c>
       <c r="D7">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.3699999999999999E-5</v>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.53800000000000003</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5.1400000000000001E-2</v>
+        <v>0.157</v>
       </c>
       <c r="H7">
-        <v>-5.5330000000000004</v>
+        <v>-8.7309999999999999</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>7.1499999999999994E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="K7">
-        <v>122.65</v>
+        <v>112.357</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>0.55800000000000005</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.9</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="B8">
-        <v>0.58199999999999996</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="C8">
-        <v>238400</v>
+        <v>215613</v>
       </c>
       <c r="D8">
-        <v>0.40100000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="E8">
-        <v>0.53800000000000003</v>
+        <v>1.8100000000000001E-4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>0.157</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H8">
-        <v>-8.7309999999999999</v>
+        <v>-7.0620000000000003</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>2.8000000000000001E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="K8">
-        <v>112.357</v>
+        <v>75.548000000000002</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8">
-        <v>0.41399999999999998</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.45600000000000002</v>
+        <v>2.5900000000000001E-4</v>
       </c>
       <c r="B9">
-        <v>0.51400000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C9">
-        <v>215613</v>
+        <v>237120</v>
       </c>
       <c r="D9">
-        <v>0.45300000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E9">
-        <v>1.8100000000000001E-4</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>0.17799999999999999</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="H9">
-        <v>-7.0620000000000003</v>
+        <v>-7.859</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>2.6700000000000002E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="K9">
-        <v>75.548000000000002</v>
+        <v>108.99</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9">
-        <v>0.53200000000000003</v>
+        <v>0.752</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.5900000000000001E-4</v>
+      <c r="A10" s="1">
+        <v>1.56E-5</v>
       </c>
       <c r="B10">
-        <v>0.64400000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="C10">
-        <v>237120</v>
+        <v>258868</v>
       </c>
       <c r="D10">
-        <v>0.75800000000000001</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E10">
-        <v>7.0800000000000002E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7.2599999999999998E-2</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="H10">
-        <v>-7.859</v>
+        <v>-3.0790000000000002</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4.58E-2</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="K10">
-        <v>108.99</v>
+        <v>110.005</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>0.752</v>
+        <v>0.17</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1.56E-5</v>
+      <c r="A11">
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="B11">
-        <v>0.49299999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="C11">
-        <v>258868</v>
+        <v>204600</v>
       </c>
       <c r="D11">
-        <v>0.96399999999999997</v>
+        <v>0.434</v>
       </c>
       <c r="E11">
-        <v>7.3299999999999997E-3</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0.72699999999999998</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H11">
-        <v>-3.0790000000000002</v>
+        <v>-8.7949999999999999</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>9.5399999999999999E-2</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="K11">
-        <v>110.005</v>
+        <v>150.06200000000001</v>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
       <c r="M11">
-        <v>0.17</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.0200000000000001E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="B12">
-        <v>0.83299999999999996</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="C12">
-        <v>204600</v>
+        <v>197840</v>
       </c>
       <c r="D12">
-        <v>0.434</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E12">
-        <v>2.1899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.16500000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="H12">
-        <v>-8.7949999999999999</v>
+        <v>-4.7270000000000003</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.43099999999999999</v>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="K12">
-        <v>150.06200000000001</v>
+        <v>92.057000000000002</v>
       </c>
       <c r="L12">
         <v>4</v>
       </c>
       <c r="M12">
-        <v>0.28599999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7.2400000000000006E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="B13">
-        <v>0.82699999999999996</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="C13">
-        <v>197840</v>
+        <v>196664</v>
       </c>
       <c r="D13">
-        <v>0.64600000000000002</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>0.247</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="H13">
-        <v>-4.7270000000000003</v>
+        <v>-5.1509999999999998</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>7.6600000000000001E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="K13">
-        <v>92.057000000000002</v>
+        <v>139.31299999999999</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
-        <v>0.51</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.1900000000000001E-2</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="B14">
-        <v>0.47299999999999998</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C14">
-        <v>196664</v>
+        <v>176272</v>
       </c>
       <c r="D14">
-        <v>0.79400000000000004</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E14">
-        <v>2.1800000000000001E-3</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>0.41799999999999998</v>
+        <v>0.127</v>
       </c>
       <c r="H14">
-        <v>-5.1509999999999998</v>
+        <v>-17.382000000000001</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>4.6199999999999998E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="K14">
-        <v>139.31299999999999</v>
+        <v>168.52699999999999</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>0.29299999999999998</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.91400000000000003</v>
+        <v>1.66E-3</v>
       </c>
       <c r="B15">
-        <v>0.42499999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="C15">
-        <v>176272</v>
+        <v>205307</v>
       </c>
       <c r="D15">
-        <v>0.13600000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E15">
-        <v>0.92100000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="F15">
         <v>11</v>
       </c>
       <c r="G15">
-        <v>0.127</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="H15">
-        <v>-17.382000000000001</v>
+        <v>-5.0789999999999997</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2.93E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="K15">
-        <v>168.52699999999999</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.22700000000000001</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.66E-3</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="B16">
-        <v>0.58699999999999997</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="C16">
-        <v>205307</v>
+        <v>219507</v>
       </c>
       <c r="D16">
-        <v>0.84099999999999997</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="E16">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>0.11700000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H16">
-        <v>-5.0789999999999997</v>
+        <v>-5.5350000000000001</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4.7600000000000003E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="K16">
-        <v>142.94999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16">
-        <v>0.69599999999999995</v>
+        <v>0.746</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.24299999999999999</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="B17">
-        <v>0.68300000000000005</v>
+        <v>0.874</v>
       </c>
       <c r="C17">
-        <v>219507</v>
+        <v>217783</v>
       </c>
       <c r="D17">
-        <v>0.69099999999999995</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0.14000000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="H17">
-        <v>-5.5350000000000001</v>
+        <v>-4.8979999999999997</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4.3200000000000002E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="K17">
-        <v>179.91</v>
+        <v>64.992000000000004</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17">
-        <v>0.746</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.0499999999999999E-2</v>
+        <v>0.157</v>
       </c>
       <c r="B18">
-        <v>0.874</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C18">
-        <v>217783</v>
+        <v>267000</v>
       </c>
       <c r="D18">
-        <v>0.49199999999999999</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0.11700000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H18">
-        <v>-4.8979999999999997</v>
+        <v>-9.9920000000000009</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.32800000000000001</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="K18">
-        <v>64.992000000000004</v>
+        <v>125.81100000000001</v>
       </c>
       <c r="L18">
         <v>4</v>
       </c>
       <c r="M18">
-        <v>0.64400000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.157</v>
+        <v>0.251</v>
       </c>
       <c r="B19">
-        <v>0.72899999999999998</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="C19">
-        <v>267000</v>
+        <v>265827</v>
       </c>
       <c r="D19">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="E19">
-        <v>0.28499999999999998</v>
+        <v>0.74</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.6800000000000002E-6</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.19500000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H19">
-        <v>-9.9920000000000009</v>
+        <v>-6.2350000000000003</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>7.3200000000000001E-2</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="K19">
-        <v>125.81100000000001</v>
+        <v>180.559</v>
       </c>
       <c r="L19">
         <v>4</v>
       </c>
       <c r="M19">
-        <v>0.90900000000000003</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q19" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.251</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B20">
-        <v>0.56899999999999995</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C20">
-        <v>265827</v>
+        <v>207264</v>
       </c>
       <c r="D20">
-        <v>0.74</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.6800000000000002E-6</v>
+        <v>0.46</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>0.13400000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="H20">
-        <v>-6.2350000000000003</v>
+        <v>-9.7100000000000009</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.28299999999999997</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K20">
-        <v>180.559</v>
+        <v>97.512</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>0.70899999999999996</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Q20" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.5000000000000001E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="B21">
-        <v>0.85399999999999998</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C21">
-        <v>207264</v>
+        <v>374133</v>
       </c>
       <c r="D21">
-        <v>0.46</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1.6699999999999999E-4</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.128</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="H21">
-        <v>-9.7100000000000009</v>
+        <v>-9.5419999999999998</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.14000000000000001</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="K21">
-        <v>97.512</v>
+        <v>110.325</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>0.49199999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2.46E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="B22">
-        <v>0.58599999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C22">
-        <v>374133</v>
+        <v>336906</v>
       </c>
       <c r="D22">
-        <v>0.80600000000000005</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E22">
-        <v>1.6699999999999999E-4</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>0.35299999999999998</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H22">
-        <v>-9.5419999999999998</v>
+        <v>-9.4809999999999999</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.4800000000000001E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="K22">
-        <v>110.325</v>
+        <v>120.761</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
-        <v>0.20699999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q22" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3.6499999999999998E-2</v>
+        <v>1.03E-4</v>
       </c>
       <c r="B23">
-        <v>0.82899999999999996</v>
+        <v>0.498</v>
       </c>
       <c r="C23">
-        <v>336906</v>
+        <v>322933</v>
       </c>
       <c r="D23">
-        <v>0.63700000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="E23">
-        <v>2.3300000000000001E-2</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
       <c r="G23">
-        <v>0.26700000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="H23">
-        <v>-9.4809999999999999</v>
+        <v>-6.1929999999999996</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>8.8200000000000001E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="K23">
-        <v>120.761</v>
+        <v>111.015</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23">
-        <v>0.68799999999999994</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.03E-4</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="B24">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
       <c r="C24">
-        <v>322933</v>
+        <v>255632</v>
       </c>
       <c r="D24">
-        <v>0.55300000000000005</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E24">
-        <v>0.52800000000000002</v>
+        <v>1.1900000000000001E-4</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.27300000000000002</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="H24">
-        <v>-6.1929999999999996</v>
+        <v>-5.45</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3.32E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K24">
-        <v>111.015</v>
+        <v>122.02500000000001</v>
       </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24">
-        <v>0.22800000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1.5100000000000001E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="B25">
-        <v>0.502</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="C25">
-        <v>255632</v>
+        <v>271080</v>
       </c>
       <c r="D25">
-        <v>0.73199999999999998</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="E25">
-        <v>1.1900000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>8.9700000000000002E-2</v>
+        <v>0.123</v>
       </c>
       <c r="H25">
-        <v>-5.45</v>
+        <v>-5.5330000000000004</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.16800000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="K25">
-        <v>122.02500000000001</v>
+        <v>144.12700000000001</v>
       </c>
       <c r="L25">
         <v>4</v>
       </c>
       <c r="M25">
-        <v>0.52900000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Q25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.28599999999999998</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="B26">
-        <v>0.70599999999999996</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C26">
-        <v>271080</v>
+        <v>476164</v>
       </c>
       <c r="D26">
-        <v>0.68899999999999995</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.123</v>
+        <v>0.113</v>
       </c>
       <c r="H26">
-        <v>-5.5330000000000004</v>
+        <v>-10.304</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.17</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="K26">
-        <v>144.12700000000001</v>
+        <v>82.757999999999996</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>0.42</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="Q26" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.85399999999999998</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="B27">
-        <v>0.35399999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C27">
-        <v>476164</v>
+        <v>185474</v>
       </c>
       <c r="D27">
-        <v>0.22800000000000001</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>0.113</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H27">
-        <v>-10.304</v>
+        <v>-6.1070000000000002</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>2.9600000000000001E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K27">
-        <v>82.757999999999996</v>
+        <v>156.107</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>7.4499999999999997E-2</v>
+        <v>0.52</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1.5900000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="B28">
-        <v>0.59099999999999997</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C28">
-        <v>185474</v>
+        <v>194893</v>
       </c>
       <c r="D28">
-        <v>0.57699999999999996</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>0.16200000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H28">
-        <v>-6.1070000000000002</v>
+        <v>-4.8019999999999996</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3.3099999999999997E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="K28">
-        <v>156.107</v>
+        <v>146.91900000000001</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
       <c r="M28">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Q28" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.9699999999999999E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="B29">
-        <v>0.59299999999999997</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C29">
-        <v>194893</v>
+        <v>230213</v>
       </c>
       <c r="D29">
-        <v>0.81399999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1.99E-3</v>
       </c>
       <c r="F29">
         <v>9</v>
       </c>
       <c r="G29">
-        <v>0.18</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="H29">
-        <v>-4.8019999999999996</v>
+        <v>-3.4460000000000002</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.16600000000000001</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K29">
-        <v>146.91900000000001</v>
+        <v>119.964</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
       <c r="M29">
-        <v>0.47</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="Q29" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.16200000000000001</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="B30">
-        <v>0.52900000000000003</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="C30">
-        <v>230213</v>
+        <v>297893</v>
       </c>
       <c r="D30">
-        <v>0.95</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="E30">
-        <v>1.99E-3</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.61599999999999999</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="H30">
-        <v>-3.4460000000000002</v>
+        <v>-3.2029999999999998</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>5.6000000000000001E-2</v>
+        <v>0.217</v>
       </c>
       <c r="K30">
-        <v>119.964</v>
+        <v>171.297</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
       <c r="M30">
-        <v>0.45600000000000002</v>
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Q30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>7.5700000000000003E-2</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="B31">
-        <v>0.57199999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C31">
-        <v>297893</v>
+        <v>214740</v>
       </c>
       <c r="D31">
-        <v>0.85299999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1.55E-4</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>7.9799999999999996E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="H31">
-        <v>-3.2029999999999998</v>
+        <v>-5.5940000000000003</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.217</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K31">
-        <v>171.297</v>
+        <v>114.059</v>
       </c>
       <c r="L31">
         <v>4</v>
       </c>
       <c r="M31">
-        <v>9.9500000000000005E-2</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q31" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4.7699999999999999E-3</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="B32">
-        <v>0.58499999999999996</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="C32">
-        <v>214740</v>
+        <v>214347</v>
       </c>
       <c r="D32">
-        <v>0.61399999999999999</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="E32">
-        <v>1.55E-4</v>
+        <v>0.185</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>7.6200000000000004E-2</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="H32">
-        <v>-5.5940000000000003</v>
+        <v>-6.9139999999999997</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3.6999999999999998E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="K32">
-        <v>114.059</v>
+        <v>109.982</v>
       </c>
       <c r="L32">
         <v>4</v>
       </c>
       <c r="M32">
-        <v>0.27300000000000002</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="Q32" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.4199999999999999E-2</v>
+        <v>0.498</v>
       </c>
       <c r="B33">
-        <v>0.73499999999999999</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="C33">
-        <v>214347</v>
+        <v>255173</v>
       </c>
       <c r="D33">
-        <v>0.75900000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E33">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>9.6600000000000005E-2</v>
+        <v>0.108</v>
       </c>
       <c r="H33">
-        <v>-6.9139999999999997</v>
+        <v>-7.431</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>4.4900000000000002E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="K33">
-        <v>109.982</v>
+        <v>157.93799999999999</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>0.76300000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="Q33" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.498</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="B34">
-        <v>0.33100000000000002</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="C34">
-        <v>255173</v>
+        <v>169307</v>
       </c>
       <c r="D34">
-        <v>0.42699999999999999</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.108</v>
+        <v>0.161</v>
       </c>
       <c r="H34">
-        <v>-7.431</v>
+        <v>-7.3179999999999996</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>3.0200000000000001E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="K34">
-        <v>157.93799999999999</v>
+        <v>143.75</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>7.9400000000000002E-6</v>
+      </c>
+      <c r="B35">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C35">
+        <v>239696</v>
+      </c>
+      <c r="D35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.874</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H35">
+        <v>-2.6349999999999998</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K35">
+        <v>160.114</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
         <v>0.129</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="B35">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="B36">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C36">
+        <v>185588</v>
+      </c>
+      <c r="D36">
         <v>0.61599999999999999</v>
       </c>
-      <c r="C35">
-        <v>169307</v>
-      </c>
-      <c r="D35">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0.161</v>
-      </c>
-      <c r="H35">
-        <v>-7.3179999999999996</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>3.44E-2</v>
-      </c>
-      <c r="K35">
-        <v>143.75</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>82</v>
-      </c>
-      <c r="P35" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>7.9400000000000002E-6</v>
-      </c>
-      <c r="B36">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="C36">
-        <v>239696</v>
-      </c>
-      <c r="D36">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="E36">
-        <v>0.874</v>
+      <c r="E36" s="1">
+        <v>2.2900000000000001E-6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0.32500000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H36">
-        <v>-2.6349999999999998</v>
+        <v>-8.016</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.29899999999999999</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="K36">
-        <v>160.114</v>
+        <v>101.96599999999999</v>
       </c>
       <c r="L36">
         <v>4</v>
       </c>
       <c r="M36">
-        <v>0.129</v>
+        <v>0.89</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="Q36" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.14399999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="B37">
-        <v>0.73599999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C37">
-        <v>185588</v>
+        <v>206693</v>
       </c>
       <c r="D37">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2.2900000000000001E-6</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.26800000000000002</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="H37">
-        <v>-8.016</v>
+        <v>-4.9610000000000003</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>3.4500000000000003E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="K37">
-        <v>101.96599999999999</v>
+        <v>134.066</v>
       </c>
       <c r="L37">
         <v>4</v>
       </c>
       <c r="M37">
-        <v>0.89</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="P37" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Q37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.2999999999999999E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="B38">
-        <v>0.85299999999999998</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="C38">
-        <v>206693</v>
+        <v>260400</v>
       </c>
       <c r="D38">
-        <v>0.56000000000000005</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>9.4399999999999998E-2</v>
+        <v>0.161</v>
       </c>
       <c r="H38">
-        <v>-4.9610000000000003</v>
+        <v>-6.1749999999999998</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>4.0599999999999997E-2</v>
+        <v>0.127</v>
       </c>
       <c r="K38">
-        <v>134.066</v>
+        <v>113.997</v>
       </c>
       <c r="L38">
         <v>4</v>
       </c>
       <c r="M38">
-        <v>0.85299999999999998</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Q38" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5.5500000000000001E-2</v>
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="B39">
-        <v>0.73499999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C39">
-        <v>260400</v>
+        <v>251093</v>
       </c>
       <c r="D39">
-        <v>0.79800000000000004</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="E39">
-        <v>6.2700000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.161</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H39">
-        <v>-6.1749999999999998</v>
+        <v>-8.9039999999999999</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.127</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="K39">
-        <v>113.997</v>
+        <v>143.06399999999999</v>
       </c>
       <c r="L39">
         <v>4</v>
       </c>
       <c r="M39">
-        <v>0.46899999999999997</v>
+        <v>0.187</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P39" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="Q39" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5.5100000000000003E-2</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="B40">
-        <v>0.54700000000000004</v>
+        <v>0.191</v>
       </c>
       <c r="C40">
-        <v>251093</v>
+        <v>184800</v>
       </c>
       <c r="D40">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.2300000000000001E-6</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0.26700000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="H40">
-        <v>-8.9039999999999999</v>
+        <v>-4.125</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0.22700000000000001</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="K40">
-        <v>143.06399999999999</v>
+        <v>203.822</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>0.187</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P40" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Q40" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.53700000000000003</v>
+        <v>1.07E-3</v>
       </c>
       <c r="B41">
-        <v>0.191</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="C41">
-        <v>184800</v>
+        <v>215291</v>
       </c>
       <c r="D41">
-        <v>0.66400000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E41" s="1">
-        <v>1.2300000000000001E-6</v>
+        <v>8.6999999999999997E-6</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>0.35299999999999998</v>
+        <v>0.311</v>
       </c>
       <c r="H41">
-        <v>-4.125</v>
+        <v>-4.6840000000000002</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>4.5600000000000002E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="K41">
-        <v>203.822</v>
+        <v>92.006</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>0.54500000000000004</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q41" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.07E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="B42">
-        <v>0.50700000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C42">
-        <v>215291</v>
+        <v>208733</v>
       </c>
       <c r="D42">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="E42" s="1">
-        <v>8.6999999999999997E-6</v>
+        <v>0.91</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>0.311</v>
+        <v>0.108</v>
       </c>
       <c r="H42">
-        <v>-4.6840000000000002</v>
+        <v>-3.0870000000000002</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>7.0099999999999996E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="K42">
-        <v>92.006</v>
+        <v>113.054</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>0.27500000000000002</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="Q42" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.0200000000000001E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="B43">
-        <v>0.53300000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C43">
-        <v>208733</v>
+        <v>187013</v>
       </c>
       <c r="D43">
-        <v>0.91</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.108</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="H43">
-        <v>-3.0870000000000002</v>
+        <v>-7.4509999999999996</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>5.6599999999999998E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="K43">
-        <v>113.054</v>
+        <v>110.54</v>
       </c>
       <c r="L43">
         <v>4</v>
       </c>
       <c r="M43">
-        <v>0.48099999999999998</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Q43" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4.9500000000000002E-2</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="B44">
-        <v>0.54700000000000004</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="C44">
-        <v>187013</v>
+        <v>201280</v>
       </c>
       <c r="D44">
-        <v>0.51300000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3019,302 +2968,249 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.18099999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="H44">
-        <v>-7.4509999999999996</v>
+        <v>-12.951000000000001</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>3.09E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="K44">
-        <v>110.54</v>
+        <v>89.605000000000004</v>
       </c>
       <c r="L44">
         <v>4</v>
       </c>
       <c r="M44">
-        <v>0.26200000000000001</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Q44" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.46800000000000003</v>
+        <v>0.214</v>
       </c>
       <c r="B45">
-        <v>0.57799999999999996</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C45">
-        <v>201280</v>
+        <v>196422</v>
       </c>
       <c r="D45">
-        <v>0.375</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>0.156</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="H45">
-        <v>-12.951000000000001</v>
+        <v>-6.4740000000000002</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>2.7199999999999998E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="K45">
-        <v>89.605000000000004</v>
+        <v>92.096999999999994</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>0.56100000000000005</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="Q45" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.214</v>
+        <v>2.3900000000000001E-4</v>
       </c>
       <c r="B46">
-        <v>0.63800000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="C46">
-        <v>196422</v>
+        <v>255413</v>
       </c>
       <c r="D46">
-        <v>0.63400000000000001</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>8.6599999999999996E-2</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="H46">
-        <v>-6.4740000000000002</v>
+        <v>-6.0049999999999999</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>4.6800000000000001E-2</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="K46">
-        <v>92.096999999999994</v>
+        <v>120.462</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>0.44500000000000001</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="P46" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="Q46" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2.3900000000000001E-4</v>
+        <v>0.19</v>
       </c>
       <c r="B47">
-        <v>0.32900000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="C47">
-        <v>255413</v>
+        <v>239880</v>
       </c>
       <c r="D47">
-        <v>0.81399999999999995</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="E47">
-        <v>9.4399999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47">
-        <v>9.3600000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H47">
-        <v>-6.0049999999999999</v>
+        <v>-5.7519999999999998</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>6.7400000000000002E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="K47">
-        <v>120.462</v>
+        <v>98.051000000000002</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>0.40300000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P47" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="Q47" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.19</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="B48">
-        <v>0.77600000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="C48">
-        <v>239880</v>
+        <v>326318</v>
       </c>
       <c r="D48">
-        <v>0.50700000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>0.12</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="H48">
-        <v>-5.7519999999999998</v>
+        <v>-6.9269999999999996</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>4.0500000000000001E-2</v>
+        <v>0.187</v>
       </c>
       <c r="K48">
-        <v>98.051000000000002</v>
+        <v>114.959</v>
       </c>
       <c r="L48">
         <v>4</v>
       </c>
       <c r="M48">
-        <v>0.51</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Q48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="B49">
-        <v>0.89</v>
-      </c>
-      <c r="C49">
-        <v>326318</v>
-      </c>
-      <c r="D49">
-        <v>0.52</v>
-      </c>
-      <c r="E49">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="H49">
-        <v>-6.9269999999999996</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0.187</v>
-      </c>
-      <c r="K49">
-        <v>114.959</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>110</v>
-      </c>
-      <c r="P49" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
